--- a/Data/OtherTemplates/PAYArena_WorkLog.xlsx
+++ b/Data/OtherTemplates/PAYArena_WorkLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMPA11195\Documents\UiPath\PAY ARENA PROCESS\PAY ARENA PROCESS\Data\OtherTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\AA VISA PROCESS\PAY ARENA PROCESS\Data\OtherTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2140759-0932-4698-B621-D92B624D0D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D202D3F3-4212-48BC-8AB5-0252DCE162EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{075AD9F0-B0C3-48B0-8B56-034DFAC0293F}"/>
   </bookViews>
   <sheets>
     <sheet name="VISA DR" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="60">
   <si>
     <t>RRN</t>
   </si>
@@ -208,16 +208,19 @@
     <t>Product Type</t>
   </si>
   <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>EXTRA VAT</t>
-  </si>
-  <si>
-    <t>NEW FEE</t>
-  </si>
-  <si>
-    <t>ACTUAL AMOUNT SETTLED</t>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>ISSUER DEBIT</t>
+  </si>
+  <si>
+    <t>ISSUER CREDIT</t>
+  </si>
+  <si>
+    <t>ISSUER NET POSITION</t>
+  </si>
+  <si>
+    <t>PROCESSING FEE</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -271,13 +281,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4423B75-61D2-4F65-BB39-130C6A7BCB15}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:XFD1"/>
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,27 +643,24 @@
     <col min="28" max="28" width="16.28515625" customWidth="1"/>
     <col min="29" max="29" width="23.5703125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="34" width="32.28515625" customWidth="1"/>
-    <col min="35" max="35" width="12.140625" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="58" max="59" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="32.28515625" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.7109375" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="54" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,85 +761,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -843,10 +846,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -856,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD8FE41-F0C9-4FDF-A38A-2EE01A6AD0E7}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:XFD1"/>
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,28 +889,24 @@
     <col min="25" max="25" width="18.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="33" width="24.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="30.85546875" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1012,85 +1007,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -1105,10 +1092,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1118,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E839C-079A-4304-B41D-A134057F4C20}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="A1:XFD1"/>
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,27 +1140,23 @@
     <col min="30" max="30" width="13" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
     <col min="33" max="33" width="33" customWidth="1"/>
-    <col min="34" max="34" width="26.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="32.85546875" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="51" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="47" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1278,85 +1257,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -1371,10 +1342,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1384,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E739356-7AFD-4C55-8EF4-4BE53F033206}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="A1:XFD1"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,28 +1385,24 @@
     <col min="25" max="25" width="18.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="33" width="24.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="22.28515625" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1540,85 +1503,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -1633,10 +1588,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A1060D-3079-40A7-8AB5-72A153005E6D}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,28 +1631,24 @@
     <col min="25" max="25" width="18.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="33" width="24.140625" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="17.42578125" customWidth="1"/>
-    <col min="37" max="37" width="22.28515625" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1802,85 +1749,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -1895,10 +1834,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1908,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5713A5-2DC6-48DA-AEED-48E9EFB28492}">
-  <dimension ref="A1:CC1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
     <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,25 +1877,24 @@
     <col min="25" max="25" width="18.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="36" width="33.42578125" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" customWidth="1"/>
-    <col min="39" max="39" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="22.28515625" customWidth="1"/>
-    <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" customWidth="1"/>
-    <col min="47" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="13" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="13.5703125" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" customWidth="1"/>
-    <col min="57" max="57" width="14.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2061,85 +1995,77 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="AV1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
       <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -2154,10 +2080,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4050A8AC-10D4-4037-BAF6-E223315D677B}">
-  <dimension ref="A1:CB1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,26 +2123,24 @@
     <col min="25" max="25" width="18.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
-    <col min="33" max="34" width="29.28515625" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" customWidth="1"/>
-    <col min="38" max="38" width="20.7109375" customWidth="1"/>
-    <col min="39" max="39" width="22.28515625" customWidth="1"/>
-    <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="49" max="49" width="21.140625" customWidth="1"/>
-    <col min="51" max="51" width="18.42578125" customWidth="1"/>
-    <col min="53" max="53" width="13.5703125" customWidth="1"/>
-    <col min="55" max="55" width="15.28515625" customWidth="1"/>
-    <col min="56" max="56" width="14.140625" customWidth="1"/>
-    <col min="58" max="58" width="13.42578125" customWidth="1"/>
+    <col min="33" max="33" width="29.28515625" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2321,82 +2241,76 @@
         <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="AU1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
@@ -2412,9 +2326,6 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2424,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8A67-CC61-4297-A686-606F46EE8F68}">
-  <dimension ref="A1:CB1"/>
+  <dimension ref="A1:BY1"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,236 +2370,21 @@
     <col min="26" max="26" width="12.42578125" customWidth="1"/>
     <col min="32" max="32" width="17.42578125" customWidth="1"/>
     <col min="33" max="33" width="29.7109375" customWidth="1"/>
-    <col min="34" max="34" width="24.140625" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="18.28515625" customWidth="1"/>
-    <col min="38" max="38" width="20.7109375" customWidth="1"/>
-    <col min="39" max="39" width="22.28515625" customWidth="1"/>
-    <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" customWidth="1"/>
-    <col min="43" max="43" width="18.140625" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="49" max="49" width="21.140625" customWidth="1"/>
-    <col min="51" max="51" width="18.42578125" customWidth="1"/>
-    <col min="53" max="53" width="13.5703125" customWidth="1"/>
-    <col min="55" max="55" width="15.28515625" customWidth="1"/>
-    <col min="56" max="56" width="14.140625" customWidth="1"/>
-    <col min="58" max="58" width="13.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="14.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F186D1-320E-4708-8982-5875DE4BE269}">
-  <dimension ref="A1:BY1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:77" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2879,5 +2575,129 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F186D1-320E-4708-8982-5875DE4BE269}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>